--- a/input/dynamic_data/season_17/forecasting_method/average/improved/forecast_point_GW2.xlsx
+++ b/input/dynamic_data/season_17/forecasting_method/average/improved/forecast_point_GW2.xlsx
@@ -3637,37 +3637,37 @@
         <v>93.0</v>
       </c>
       <c r="B94" t="n">
-        <v>2.1318742795840597</v>
+        <v>0.0</v>
       </c>
       <c r="C94" t="n">
-        <v>1.825408608259686</v>
+        <v>0.0</v>
       </c>
       <c r="D94" t="n">
-        <v>1.8712345869849971</v>
+        <v>0.0</v>
       </c>
       <c r="E94" t="n">
-        <v>2.085211626759995</v>
+        <v>0.0</v>
       </c>
       <c r="F94" t="n">
-        <v>1.9926669161412363</v>
+        <v>0.0</v>
       </c>
       <c r="G94" t="n">
-        <v>2.023124872634767</v>
+        <v>0.0</v>
       </c>
       <c r="H94" t="n">
-        <v>1.8216900171292523</v>
+        <v>0.0</v>
       </c>
       <c r="I94" t="n">
-        <v>2.083952440237732</v>
+        <v>0.0</v>
       </c>
       <c r="J94" t="n">
-        <v>1.8149153738087256</v>
+        <v>0.0</v>
       </c>
       <c r="K94" t="n">
-        <v>2.1492359629019417</v>
+        <v>0.0</v>
       </c>
       <c r="L94" t="n">
-        <v>2.1318742795840597</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="95">
@@ -4131,37 +4131,37 @@
         <v>106.0</v>
       </c>
       <c r="B107" t="n">
-        <v>2.35944897215684</v>
+        <v>0.0</v>
       </c>
       <c r="C107" t="n">
-        <v>2.5422718294034823</v>
+        <v>0.0</v>
       </c>
       <c r="D107" t="n">
-        <v>2.624652075527412</v>
+        <v>0.0</v>
       </c>
       <c r="E107" t="n">
-        <v>2.4632406631009363</v>
+        <v>0.0</v>
       </c>
       <c r="F107" t="n">
-        <v>2.721878696043596</v>
+        <v>0.0</v>
       </c>
       <c r="G107" t="n">
-        <v>2.3851968509144372</v>
+        <v>0.0</v>
       </c>
       <c r="H107" t="n">
-        <v>2.852261606490231</v>
+        <v>0.0</v>
       </c>
       <c r="I107" t="n">
-        <v>2.709395726858895</v>
+        <v>0.0</v>
       </c>
       <c r="J107" t="n">
-        <v>2.707776242408275</v>
+        <v>0.0</v>
       </c>
       <c r="K107" t="n">
-        <v>2.428048368128634</v>
+        <v>0.0</v>
       </c>
       <c r="L107" t="n">
-        <v>2.35944897215684</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="108">
@@ -6107,37 +6107,37 @@
         <v>158.0</v>
       </c>
       <c r="B159" t="n">
-        <v>6.120823703800874</v>
+        <v>0.0</v>
       </c>
       <c r="C159" t="n">
-        <v>5.414850569317905</v>
+        <v>0.0</v>
       </c>
       <c r="D159" t="n">
-        <v>5.336631803114495</v>
+        <v>0.0</v>
       </c>
       <c r="E159" t="n">
-        <v>6.141008824477641</v>
+        <v>0.0</v>
       </c>
       <c r="F159" t="n">
-        <v>5.869903445699073</v>
+        <v>0.0</v>
       </c>
       <c r="G159" t="n">
-        <v>6.3397972627029695</v>
+        <v>0.0</v>
       </c>
       <c r="H159" t="n">
-        <v>5.512255782645748</v>
+        <v>0.0</v>
       </c>
       <c r="I159" t="n">
-        <v>5.319599999999999</v>
+        <v>0.0</v>
       </c>
       <c r="J159" t="n">
-        <v>6.606265281981224</v>
+        <v>0.0</v>
       </c>
       <c r="K159" t="n">
-        <v>6.039995271466516</v>
+        <v>0.0</v>
       </c>
       <c r="L159" t="n">
-        <v>6.120823703800874</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="160">
@@ -9717,37 +9717,37 @@
         <v>253.0</v>
       </c>
       <c r="B254" t="n">
-        <v>2.775530138540474</v>
+        <v>0.0</v>
       </c>
       <c r="C254" t="n">
-        <v>2.772063461142229</v>
+        <v>0.0</v>
       </c>
       <c r="D254" t="n">
-        <v>2.7787191329782264</v>
+        <v>0.0</v>
       </c>
       <c r="E254" t="n">
-        <v>2.7588</v>
+        <v>0.0</v>
       </c>
       <c r="F254" t="n">
-        <v>2.501611055149077</v>
+        <v>0.0</v>
       </c>
       <c r="G254" t="n">
-        <v>2.7955394672041187</v>
+        <v>0.0</v>
       </c>
       <c r="H254" t="n">
-        <v>2.7056532401052884</v>
+        <v>0.0</v>
       </c>
       <c r="I254" t="n">
-        <v>2.795340396605295</v>
+        <v>0.0</v>
       </c>
       <c r="J254" t="n">
-        <v>2.3634711870829848</v>
+        <v>0.0</v>
       </c>
       <c r="K254" t="n">
-        <v>3.0138453117027986</v>
+        <v>0.0</v>
       </c>
       <c r="L254" t="n">
-        <v>2.775530138540474</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="255">
@@ -9945,37 +9945,37 @@
         <v>259.0</v>
       </c>
       <c r="B260" t="n">
-        <v>1.513925530112986</v>
+        <v>0.0</v>
       </c>
       <c r="C260" t="n">
-        <v>1.5120346151684885</v>
+        <v>0.0</v>
       </c>
       <c r="D260" t="n">
-        <v>1.5156649816244872</v>
+        <v>0.0</v>
       </c>
       <c r="E260" t="n">
-        <v>1.5048</v>
+        <v>0.0</v>
       </c>
       <c r="F260" t="n">
-        <v>1.3645151209904054</v>
+        <v>0.0</v>
       </c>
       <c r="G260" t="n">
-        <v>1.5248397093840647</v>
+        <v>0.0</v>
       </c>
       <c r="H260" t="n">
-        <v>1.4758108582392482</v>
+        <v>0.0</v>
       </c>
       <c r="I260" t="n">
-        <v>1.5247311254210703</v>
+        <v>0.0</v>
       </c>
       <c r="J260" t="n">
-        <v>1.2891661020452643</v>
+        <v>0.0</v>
       </c>
       <c r="K260" t="n">
-        <v>1.6439156245651627</v>
+        <v>0.0</v>
       </c>
       <c r="L260" t="n">
-        <v>1.513925530112986</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="261">
@@ -11807,37 +11807,37 @@
         <v>308.0</v>
       </c>
       <c r="B309" t="n">
-        <v>7.9535865737028635</v>
+        <v>0.0</v>
       </c>
       <c r="C309" t="n">
-        <v>6.810225883023701</v>
+        <v>0.0</v>
       </c>
       <c r="D309" t="n">
-        <v>6.98119322974151</v>
+        <v>0.0</v>
       </c>
       <c r="E309" t="n">
-        <v>7.779497767177532</v>
+        <v>0.0</v>
       </c>
       <c r="F309" t="n">
-        <v>7.434232394405088</v>
+        <v>0.0</v>
       </c>
       <c r="G309" t="n">
-        <v>7.5478647957850775</v>
+        <v>0.0</v>
       </c>
       <c r="H309" t="n">
-        <v>6.796352580657166</v>
+        <v>0.0</v>
       </c>
       <c r="I309" t="n">
-        <v>7.774799999999999</v>
+        <v>0.0</v>
       </c>
       <c r="J309" t="n">
-        <v>6.7710777730984955</v>
+        <v>0.0</v>
       </c>
       <c r="K309" t="n">
-        <v>8.018359460479719</v>
+        <v>0.0</v>
       </c>
       <c r="L309" t="n">
-        <v>7.9535865737028635</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="310">
@@ -12225,37 +12225,37 @@
         <v>319.0</v>
       </c>
       <c r="B320" t="n">
-        <v>0.8179681266732683</v>
+        <v>0.0</v>
       </c>
       <c r="C320" t="n">
-        <v>0.9440381652446702</v>
+        <v>0.0</v>
       </c>
       <c r="D320" t="n">
-        <v>0.8722482132674142</v>
+        <v>0.0</v>
       </c>
       <c r="E320" t="n">
-        <v>0.949064716330897</v>
+        <v>0.0</v>
       </c>
       <c r="F320" t="n">
-        <v>0.9173061609007499</v>
+        <v>0.0</v>
       </c>
       <c r="G320" t="n">
-        <v>1.0234014392466901</v>
+        <v>0.0</v>
       </c>
       <c r="H320" t="n">
-        <v>0.9362222228006816</v>
+        <v>0.0</v>
       </c>
       <c r="I320" t="n">
-        <v>0.8184</v>
+        <v>0.0</v>
       </c>
       <c r="J320" t="n">
-        <v>0.8537329729463425</v>
+        <v>0.0</v>
       </c>
       <c r="K320" t="n">
-        <v>0.9851299379122369</v>
+        <v>0.0</v>
       </c>
       <c r="L320" t="n">
-        <v>0.8179681266732683</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="321">
@@ -12491,37 +12491,37 @@
         <v>326.0</v>
       </c>
       <c r="B327" t="n">
-        <v>2.828027764818393</v>
+        <v>0.0</v>
       </c>
       <c r="C327" t="n">
-        <v>2.7916961185773066</v>
+        <v>0.0</v>
       </c>
       <c r="D327" t="n">
-        <v>2.8238024481282316</v>
+        <v>0.0</v>
       </c>
       <c r="E327" t="n">
-        <v>2.85513646885082</v>
+        <v>0.0</v>
       </c>
       <c r="F327" t="n">
-        <v>3.1474719700193696</v>
+        <v>0.0</v>
       </c>
       <c r="G327" t="n">
-        <v>3.195060404692745</v>
+        <v>0.0</v>
       </c>
       <c r="H327" t="n">
-        <v>3.1442495739871497</v>
+        <v>0.0</v>
       </c>
       <c r="I327" t="n">
-        <v>2.8071242188014076</v>
+        <v>0.0</v>
       </c>
       <c r="J327" t="n">
-        <v>2.98686624248684</v>
+        <v>0.0</v>
       </c>
       <c r="K327" t="n">
-        <v>3.071354013542544</v>
+        <v>0.0</v>
       </c>
       <c r="L327" t="n">
-        <v>2.828027764818393</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="328">
@@ -12605,37 +12605,37 @@
         <v>329.0</v>
       </c>
       <c r="B330" t="n">
-        <v>4.048604426736513</v>
+        <v>0.0</v>
       </c>
       <c r="C330" t="n">
-        <v>4.362312177101954</v>
+        <v>0.0</v>
       </c>
       <c r="D330" t="n">
-        <v>4.503669346961873</v>
+        <v>0.0</v>
       </c>
       <c r="E330" t="n">
-        <v>4.226701730121128</v>
+        <v>0.0</v>
       </c>
       <c r="F330" t="n">
-        <v>4.670501573835006</v>
+        <v>0.0</v>
       </c>
       <c r="G330" t="n">
-        <v>4.092785494921172</v>
+        <v>0.0</v>
       </c>
       <c r="H330" t="n">
-        <v>4.894227043058652</v>
+        <v>0.0</v>
       </c>
       <c r="I330" t="n">
-        <v>4.649081909796332</v>
+        <v>0.0</v>
       </c>
       <c r="J330" t="n">
-        <v>4.6463030186259004</v>
+        <v>0.0</v>
       </c>
       <c r="K330" t="n">
-        <v>4.1663148843392355</v>
+        <v>0.0</v>
       </c>
       <c r="L330" t="n">
-        <v>4.048604426736513</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="331">
@@ -12643,37 +12643,37 @@
         <v>330.0</v>
       </c>
       <c r="B331" t="n">
-        <v>3.5130538541727634</v>
+        <v>0.0</v>
       </c>
       <c r="C331" t="n">
-        <v>3.785264251964956</v>
+        <v>0.0</v>
       </c>
       <c r="D331" t="n">
-        <v>3.9079226542311503</v>
+        <v>0.0</v>
       </c>
       <c r="E331" t="n">
-        <v>3.6675923944019044</v>
+        <v>0.0</v>
       </c>
       <c r="F331" t="n">
-        <v>4.052686265550254</v>
+        <v>0.0</v>
       </c>
       <c r="G331" t="n">
-        <v>3.551390637791976</v>
+        <v>0.0</v>
       </c>
       <c r="H331" t="n">
-        <v>4.246817264553849</v>
+        <v>0.0</v>
       </c>
       <c r="I331" t="n">
-        <v>4.034100000908241</v>
+        <v>0.0</v>
       </c>
       <c r="J331" t="n">
-        <v>4.031688702271076</v>
+        <v>0.0</v>
       </c>
       <c r="K331" t="n">
-        <v>3.615193538165308</v>
+        <v>0.0</v>
       </c>
       <c r="L331" t="n">
-        <v>3.5130538541727634</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="332">
@@ -13365,37 +13365,37 @@
         <v>349.0</v>
       </c>
       <c r="B350" t="n">
-        <v>0.21796995707808464</v>
+        <v>0.0</v>
       </c>
       <c r="C350" t="n">
-        <v>0.2520446649753479</v>
+        <v>0.0</v>
       </c>
       <c r="D350" t="n">
-        <v>0.24710950348270558</v>
+        <v>0.0</v>
       </c>
       <c r="E350" t="n">
-        <v>0.24382068963306813</v>
+        <v>0.0</v>
       </c>
       <c r="F350" t="n">
-        <v>0.21000881417946157</v>
+        <v>0.0</v>
       </c>
       <c r="G350" t="n">
-        <v>0.2165754046408663</v>
+        <v>0.0</v>
       </c>
       <c r="H350" t="n">
-        <v>0.20735739381819449</v>
+        <v>0.0</v>
       </c>
       <c r="I350" t="n">
-        <v>0.2520454377390137</v>
+        <v>0.0</v>
       </c>
       <c r="J350" t="n">
-        <v>0.23893483140329996</v>
+        <v>0.0</v>
       </c>
       <c r="K350" t="n">
-        <v>0.20835294117138656</v>
+        <v>0.0</v>
       </c>
       <c r="L350" t="n">
-        <v>0.21796995707808464</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="351">
@@ -13479,37 +13479,37 @@
         <v>352.0</v>
       </c>
       <c r="B353" t="n">
-        <v>2.59668324076569</v>
+        <v>0.0</v>
       </c>
       <c r="C353" t="n">
-        <v>3.0026163524518688</v>
+        <v>0.0</v>
       </c>
       <c r="D353" t="n">
-        <v>2.9438236118824626</v>
+        <v>0.0</v>
       </c>
       <c r="E353" t="n">
-        <v>2.904643864729086</v>
+        <v>0.0</v>
       </c>
       <c r="F353" t="n">
-        <v>2.5018418845562667</v>
+        <v>0.0</v>
       </c>
       <c r="G353" t="n">
-        <v>2.5800698918866214</v>
+        <v>0.0</v>
       </c>
       <c r="H353" t="n">
-        <v>2.4702554269149473</v>
+        <v>0.0</v>
       </c>
       <c r="I353" t="n">
-        <v>3.002625558410741</v>
+        <v>0.0</v>
       </c>
       <c r="J353" t="n">
-        <v>2.8464384755457908</v>
+        <v>0.0</v>
       </c>
       <c r="K353" t="n">
-        <v>2.482115415154044</v>
+        <v>0.0</v>
       </c>
       <c r="L353" t="n">
-        <v>2.59668324076569</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="354">
@@ -15075,37 +15075,37 @@
         <v>394.0</v>
       </c>
       <c r="B395" t="n">
-        <v>13.654145185401951</v>
+        <v>0.0</v>
       </c>
       <c r="C395" t="n">
-        <v>12.079282039247635</v>
+        <v>0.0</v>
       </c>
       <c r="D395" t="n">
-        <v>11.904794022332334</v>
+        <v>0.0</v>
       </c>
       <c r="E395" t="n">
-        <v>13.699173531527048</v>
+        <v>0.0</v>
       </c>
       <c r="F395" t="n">
-        <v>13.094399994251779</v>
+        <v>0.0</v>
       </c>
       <c r="G395" t="n">
-        <v>14.142624662952779</v>
+        <v>0.0</v>
       </c>
       <c r="H395" t="n">
-        <v>12.296570592055899</v>
+        <v>0.0</v>
       </c>
       <c r="I395" t="n">
-        <v>11.8668</v>
+        <v>0.0</v>
       </c>
       <c r="J395" t="n">
-        <v>14.73705332134273</v>
+        <v>0.0</v>
       </c>
       <c r="K395" t="n">
-        <v>13.473835605579152</v>
+        <v>0.0</v>
       </c>
       <c r="L395" t="n">
-        <v>13.654145185401951</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="396">
@@ -15189,37 +15189,37 @@
         <v>397.0</v>
       </c>
       <c r="B398" t="n">
-        <v>5.649991111200808</v>
+        <v>0.0</v>
       </c>
       <c r="C398" t="n">
-        <v>4.998323602447298</v>
+        <v>0.0</v>
       </c>
       <c r="D398" t="n">
-        <v>4.92612166441338</v>
+        <v>0.0</v>
       </c>
       <c r="E398" t="n">
-        <v>5.6686235302870545</v>
+        <v>0.0</v>
       </c>
       <c r="F398" t="n">
-        <v>5.41837241141453</v>
+        <v>0.0</v>
       </c>
       <c r="G398" t="n">
-        <v>5.852120550187357</v>
+        <v>0.0</v>
       </c>
       <c r="H398" t="n">
-        <v>5.088236107057614</v>
+        <v>0.0</v>
       </c>
       <c r="I398" t="n">
-        <v>4.9104</v>
+        <v>0.0</v>
       </c>
       <c r="J398" t="n">
-        <v>6.09809102952113</v>
+        <v>0.0</v>
       </c>
       <c r="K398" t="n">
-        <v>5.575380250584477</v>
+        <v>0.0</v>
       </c>
       <c r="L398" t="n">
-        <v>5.649991111200808</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="399">
@@ -16367,37 +16367,37 @@
         <v>428.0</v>
       </c>
       <c r="B429" t="n">
-        <v>10.030195682525376</v>
+        <v>0.0</v>
       </c>
       <c r="C429" t="n">
-        <v>8.869977825823948</v>
+        <v>0.0</v>
       </c>
       <c r="D429" t="n">
-        <v>10.055174227371895</v>
+        <v>0.0</v>
       </c>
       <c r="E429" t="n">
-        <v>8.643796570302852</v>
+        <v>0.0</v>
       </c>
       <c r="F429" t="n">
-        <v>9.957044836658527</v>
+        <v>0.0</v>
       </c>
       <c r="G429" t="n">
-        <v>10.14104347853377</v>
+        <v>0.0</v>
       </c>
       <c r="H429" t="n">
-        <v>10.16968222057792</v>
+        <v>0.0</v>
       </c>
       <c r="I429" t="n">
-        <v>9.68004062591944</v>
+        <v>0.0</v>
       </c>
       <c r="J429" t="n">
-        <v>10.14246064675364</v>
+        <v>0.0</v>
       </c>
       <c r="K429" t="n">
-        <v>8.555052474657057</v>
+        <v>0.0</v>
       </c>
       <c r="L429" t="n">
-        <v>10.030195682525376</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="430">
@@ -18115,37 +18115,37 @@
         <v>474.0</v>
       </c>
       <c r="B475" t="n">
-        <v>2.517624104936985</v>
+        <v>0.0</v>
       </c>
       <c r="C475" t="n">
-        <v>2.8502548152338982</v>
+        <v>0.0</v>
       </c>
       <c r="D475" t="n">
-        <v>2.944117647787597</v>
+        <v>0.0</v>
       </c>
       <c r="E475" t="n">
-        <v>2.470036995014229</v>
+        <v>0.0</v>
       </c>
       <c r="F475" t="n">
-        <v>2.8854488690206788</v>
+        <v>0.0</v>
       </c>
       <c r="G475" t="n">
-        <v>2.788174098687442</v>
+        <v>0.0</v>
       </c>
       <c r="H475" t="n">
-        <v>3.099186883172167</v>
+        <v>0.0</v>
       </c>
       <c r="I475" t="n">
-        <v>2.769253847685823</v>
+        <v>0.0</v>
       </c>
       <c r="J475" t="n">
-        <v>2.5498836644022713</v>
+        <v>0.0</v>
       </c>
       <c r="K475" t="n">
-        <v>2.871339793913282</v>
+        <v>0.0</v>
       </c>
       <c r="L475" t="n">
-        <v>2.517624104936985</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="476">
@@ -18723,37 +18723,37 @@
         <v>490.0</v>
       </c>
       <c r="B491" t="n">
-        <v>10.567627474035323</v>
+        <v>0.0</v>
       </c>
       <c r="C491" t="n">
-        <v>12.196372115563392</v>
+        <v>0.0</v>
       </c>
       <c r="D491" t="n">
-        <v>11.26889163785822</v>
+        <v>0.0</v>
       </c>
       <c r="E491" t="n">
-        <v>12.261311955669985</v>
+        <v>0.0</v>
       </c>
       <c r="F491" t="n">
-        <v>11.851011637167044</v>
+        <v>0.0</v>
       </c>
       <c r="G491" t="n">
-        <v>13.221695092613993</v>
+        <v>0.0</v>
       </c>
       <c r="H491" t="n">
-        <v>12.095395114854945</v>
+        <v>0.0</v>
       </c>
       <c r="I491" t="n">
-        <v>10.573207002483985</v>
+        <v>0.0</v>
       </c>
       <c r="J491" t="n">
-        <v>11.029686519804178</v>
+        <v>0.0</v>
       </c>
       <c r="K491" t="n">
-        <v>12.727251659201217</v>
+        <v>0.0</v>
       </c>
       <c r="L491" t="n">
-        <v>10.567627474035323</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="492">
@@ -19255,37 +19255,37 @@
         <v>504.0</v>
       </c>
       <c r="B505" t="n">
-        <v>0.28405754389146</v>
+        <v>0.0</v>
       </c>
       <c r="C505" t="n">
-        <v>0.284128203472783</v>
+        <v>0.0</v>
       </c>
       <c r="D505" t="n">
-        <v>0.28428388896997064</v>
+        <v>0.0</v>
       </c>
       <c r="E505" t="n">
-        <v>0.251589444341622</v>
+        <v>0.0</v>
       </c>
       <c r="F505" t="n">
-        <v>0.2884698285607865</v>
+        <v>0.0</v>
       </c>
       <c r="G505" t="n">
-        <v>0.28677065191966256</v>
+        <v>0.0</v>
       </c>
       <c r="H505" t="n">
-        <v>0.25798993599715886</v>
+        <v>0.0</v>
       </c>
       <c r="I505" t="n">
-        <v>0.25292340646342043</v>
+        <v>0.0</v>
       </c>
       <c r="J505" t="n">
-        <v>0.2925198767642539</v>
+        <v>0.0</v>
       </c>
       <c r="K505" t="n">
-        <v>0.28474690680719855</v>
+        <v>0.0</v>
       </c>
       <c r="L505" t="n">
-        <v>0.28405754389146</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="506">
@@ -19825,37 +19825,37 @@
         <v>519.0</v>
       </c>
       <c r="B520" t="n">
-        <v>0.756962765056493</v>
+        <v>0.0</v>
       </c>
       <c r="C520" t="n">
-        <v>0.7560173075842442</v>
+        <v>0.0</v>
       </c>
       <c r="D520" t="n">
-        <v>0.7578324908122436</v>
+        <v>0.0</v>
       </c>
       <c r="E520" t="n">
-        <v>0.7524</v>
+        <v>0.0</v>
       </c>
       <c r="F520" t="n">
-        <v>0.6822575604952027</v>
+        <v>0.0</v>
       </c>
       <c r="G520" t="n">
-        <v>0.7624198546920323</v>
+        <v>0.0</v>
       </c>
       <c r="H520" t="n">
-        <v>0.7379054291196241</v>
+        <v>0.0</v>
       </c>
       <c r="I520" t="n">
-        <v>0.7623655627105351</v>
+        <v>0.0</v>
       </c>
       <c r="J520" t="n">
-        <v>0.6445830510226321</v>
+        <v>0.0</v>
       </c>
       <c r="K520" t="n">
-        <v>0.8219578122825814</v>
+        <v>0.0</v>
       </c>
       <c r="L520" t="n">
-        <v>0.756962765056493</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="521">
@@ -20281,37 +20281,37 @@
         <v>531.0</v>
       </c>
       <c r="B532" t="n">
-        <v>0.7687762997425267</v>
+        <v>0.0</v>
       </c>
       <c r="C532" t="n">
-        <v>0.8096530119724769</v>
+        <v>0.0</v>
       </c>
       <c r="D532" t="n">
-        <v>0.8424095177960096</v>
+        <v>0.0</v>
       </c>
       <c r="E532" t="n">
-        <v>0.7524</v>
+        <v>0.0</v>
       </c>
       <c r="F532" t="n">
-        <v>0.6712744187778589</v>
+        <v>0.0</v>
       </c>
       <c r="G532" t="n">
-        <v>0.7729698661983009</v>
+        <v>0.0</v>
       </c>
       <c r="H532" t="n">
-        <v>0.7730451218159581</v>
+        <v>0.0</v>
       </c>
       <c r="I532" t="n">
-        <v>0.7632519233565561</v>
+        <v>0.0</v>
       </c>
       <c r="J532" t="n">
-        <v>0.7897631286812618</v>
+        <v>0.0</v>
       </c>
       <c r="K532" t="n">
-        <v>0.6626606247372436</v>
+        <v>0.0</v>
       </c>
       <c r="L532" t="n">
-        <v>0.7687762997425267</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="533">
@@ -23169,37 +23169,37 @@
         <v>607.0</v>
       </c>
       <c r="B608" t="n">
-        <v>7.193211728391385</v>
+        <v>0.0</v>
       </c>
       <c r="C608" t="n">
-        <v>8.143585186382566</v>
+        <v>0.0</v>
       </c>
       <c r="D608" t="n">
-        <v>8.722482132674143</v>
+        <v>0.0</v>
       </c>
       <c r="E608" t="n">
-        <v>9.49064716330897</v>
+        <v>0.0</v>
       </c>
       <c r="F608" t="n">
-        <v>9.173061609007501</v>
+        <v>0.0</v>
       </c>
       <c r="G608" t="n">
-        <v>10.234014392466902</v>
+        <v>0.0</v>
       </c>
       <c r="H608" t="n">
-        <v>9.362222228006816</v>
+        <v>0.0</v>
       </c>
       <c r="I608" t="n">
-        <v>8.184000000000001</v>
+        <v>0.0</v>
       </c>
       <c r="J608" t="n">
-        <v>8.537329729463426</v>
+        <v>0.0</v>
       </c>
       <c r="K608" t="n">
-        <v>9.85129937912237</v>
+        <v>0.0</v>
       </c>
       <c r="L608" t="n">
-        <v>7.193211728391385</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="609">
